--- a/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-vocabulary-property-compatible-with-import.xlsx
+++ b/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-vocabulary-property-compatible-with-import.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,21 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
   <si>
     <t xml:space="preserve">VOCABULARY_TYPE</t>
   </si>
   <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
     <t xml:space="preserve">Code</t>
   </si>
   <si>
     <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">ANTIBODY.HOST</t>
@@ -156,7 +150,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -188,12 +182,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
@@ -244,40 +232,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,18 +277,124 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -318,399 +408,358 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="J12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="5" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="B15" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="8"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="I20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="J20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="5" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="5" t="s">
+      <c r="B23" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-vocabulary-property-compatible-with-import.xlsx
+++ b/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-vocabulary-property-compatible-with-import.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
   <si>
     <t xml:space="preserve">VOCABULARY_TYPE</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">$BARCODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
   </si>
   <si>
     <t xml:space="preserve">Custom Barcode</t>
@@ -390,8 +393,8 @@
   </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -537,9 +540,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C13" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>29</v>
@@ -562,21 +564,20 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C14" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -587,24 +588,23 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C15" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,17 +639,16 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -692,9 +691,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C21" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="C21" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>29</v>
@@ -717,21 +715,20 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C22" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="C22" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -742,24 +739,23 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C23" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-vocabulary-property-compatible-with-import.xlsx
+++ b/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-vocabulary-property-compatible-with-import.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
   <si>
     <t xml:space="preserve">VOCABULARY_TYPE</t>
   </si>
@@ -109,6 +109,9 @@
     <t xml:space="preserve">$NAME</t>
   </si>
   <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">General info</t>
   </si>
   <si>
@@ -119,9 +122,6 @@
   </si>
   <si>
     <t xml:space="preserve">$BARCODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FALSE</t>
   </si>
   <si>
     <t xml:space="preserve">Custom Barcode</t>
@@ -260,7 +260,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -393,8 +393,8 @@
   </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -536,45 +536,43 @@
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="B13" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>34</v>
@@ -584,15 +582,14 @@
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>35</v>
@@ -687,45 +684,43 @@
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="B21" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>34</v>
@@ -735,15 +730,14 @@
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="B23" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>35</v>

--- a/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-vocabulary-property-compatible-with-import.xlsx
+++ b/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-vocabulary-property-compatible-with-import.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
   <si>
     <t xml:space="preserve">VOCABULARY_TYPE</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t xml:space="preserve">Dynamic script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multivalued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -153,7 +159,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -192,6 +198,20 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -235,7 +255,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -260,7 +280,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -280,131 +308,25 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -412,7 +334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -420,7 +342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -500,7 +422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
@@ -531,81 +453,105 @@
       <c r="J12" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="K12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="7"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -636,19 +582,19 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
@@ -679,77 +625,101 @@
       <c r="J20" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="K20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="H22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
